--- a/4.ドキュメント/Reporting Snapshot/SpaceCoolのReportingSnapShot_20231108.xlsx
+++ b/4.ドキュメント/Reporting Snapshot/SpaceCoolのReportingSnapShot_20231108.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitHub\Rootstock_SC\4.ドキュメント\Reporting Snapshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234DBB77-CF4A-463B-B7EF-BA023193B65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B3C2-C57D-4443-AA3A-ECFF9695FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2985" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="ロケーション毎の在庫一覧" sheetId="3" r:id="rId2"/>
     <sheet name="SOのロケーション毎の出庫一覧" sheetId="4" r:id="rId3"/>
     <sheet name="POのロケーション毎の出庫一覧" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="163">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -941,154 +940,6 @@
   </si>
   <si>
     <t>po_inv_issue_target_report_snapshot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倉庫A</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倉庫B</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>製品Aを作成したい</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料B：40個あります</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOKYO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSAKA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料Bが20個は必須</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料B20個</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料B20個なります</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Issue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料B０なります</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>製品A1個なります</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動しない</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料B0個なります</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倉庫A材料Bの履歴を確認してください</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory Item By Location </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PO Reciept</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1343,134 +1194,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7295A6DF-BA4E-8202-266A-23D6405C136C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2247900" y="895350"/>
-          <a:ext cx="2895600" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC3FE5D-6BB0-4903-93B8-5F931E4A3231}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9601200" y="714375"/>
-          <a:ext cx="2895600" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1878,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FED83E-498D-486E-AE81-D3847F834A19}">
   <dimension ref="B1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -2982,7 +2705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A814E95-2BE6-48A2-876F-AFE065A7879D}">
   <dimension ref="B2:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -3610,115 +3333,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C5854-9F64-4809-A871-1867311F3F19}">
-  <dimension ref="D3:P32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="3" spans="4:16">
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" t="s">
-        <v>164</v>
-      </c>
-      <c r="P3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16">
-      <c r="O9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16">
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16">
-      <c r="D11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16">
-      <c r="D13" t="s">
-        <v>172</v>
-      </c>
-      <c r="O13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16">
-      <c r="D16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15">
-      <c r="D17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15">
-      <c r="D18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15">
-      <c r="K22" t="s">
-        <v>176</v>
-      </c>
-      <c r="O22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15">
-      <c r="D23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" t="s">
-        <v>179</v>
-      </c>
-      <c r="O23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15">
-      <c r="D25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15">
-      <c r="O26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15">
-      <c r="F27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15">
-      <c r="D32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>